--- a/OpenCart-ManualTesting-main/RTM (Opencart).xlsx
+++ b/OpenCart-ManualTesting-main/RTM (Opencart).xlsx
@@ -1494,23 +1494,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1562,10 +1545,6 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1554,27 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,8 +1795,8 @@
   </sheetPr>
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -1852,70 +1852,70 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>46038</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="41" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:8" s="34" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="56" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1924,140 +1924,140 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -2066,42 +2066,42 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -2110,28 +2110,28 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -2140,232 +2140,232 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="50" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+    <row r="34" spans="1:8" s="43" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55">
         <v>1.2</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -2374,14 +2374,14 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -2390,28 +2390,28 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -2420,42 +2420,42 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -2464,14 +2464,14 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -2480,14 +2480,14 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -2496,14 +2496,14 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -2512,176 +2512,176 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33">
+      <c r="A57" s="55">
         <v>1.3</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="52" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="8" t="s">
@@ -2690,372 +2690,372 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33">
+      <c r="A68" s="55">
         <v>1.4</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="52" t="s">
         <v>101</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F88" s="43" t="s">
+      <c r="F88" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="8" t="s">
@@ -3064,162 +3064,162 @@
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
       <c r="E90" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F92" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="30">
+      <c r="A93" s="52">
         <v>1.5</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="52" t="s">
         <v>130</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="42" t="s">
+      <c r="F93" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
       <c r="E97" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
       <c r="E98" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G100" s="8" t="s">
@@ -3228,14 +3228,14 @@
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G101" s="8" t="s">
@@ -3244,14 +3244,14 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G102" s="8" t="s">
@@ -3260,42 +3260,42 @@
       <c r="H102" s="5"/>
     </row>
     <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F103" s="43" t="s">
+      <c r="F103" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
       <c r="E104" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
       <c r="E105" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G105" s="8" t="s">
@@ -3304,84 +3304,84 @@
       <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
       <c r="E106" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F107" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
       <c r="E108" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F108" s="43" t="s">
+      <c r="F108" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
       <c r="E109" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
       <c r="E110" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F110" s="43" t="s">
+      <c r="F110" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
       <c r="E111" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="37" t="s">
+      <c r="F111" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G111" s="8" t="s">
@@ -3390,478 +3390,478 @@
       <c r="H111" s="5"/>
     </row>
     <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
     <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
       <c r="E113" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33">
+      <c r="A115" s="55">
         <v>1.6</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="52" t="s">
         <v>160</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F115" s="46" t="s">
+      <c r="F115" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F116" s="46" t="s">
+      <c r="F116" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
+      <c r="A117" s="53"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F117" s="46" t="s">
+      <c r="F117" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
+      <c r="A118" s="53"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
       <c r="E118" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F118" s="46" t="s">
+      <c r="F118" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
       <c r="E119" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F119" s="46" t="s">
+      <c r="F119" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A121" s="31"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
       <c r="E121" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
       <c r="E122" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F122" s="46" t="s">
+      <c r="F122" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F124" s="46" t="s">
+      <c r="F124" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A126" s="31"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
       <c r="E126" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F126" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="46" t="s">
+      <c r="F127" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
       <c r="E128" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F128" s="46" t="s">
+      <c r="F128" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
       <c r="E129" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F129" s="46" t="s">
+      <c r="F129" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
+      <c r="A130" s="53"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F130" s="46" t="s">
+      <c r="F130" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F131" s="46" t="s">
+      <c r="F131" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F132" s="46" t="s">
+      <c r="F132" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
       <c r="E133" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F133" s="46" t="s">
+      <c r="F133" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F134" s="46" t="s">
+      <c r="F134" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F135" s="46" t="s">
+      <c r="F135" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F136" s="46" t="s">
+      <c r="F136" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
       <c r="E137" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F137" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
       <c r="E138" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F138" s="46" t="s">
+      <c r="F138" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
     <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A139" s="33">
+      <c r="A139" s="55">
         <v>1.7</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C139" s="33" t="s">
+      <c r="C139" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="52" t="s">
         <v>187</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F139" s="42" t="s">
+      <c r="F139" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
       <c r="E140" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F140" s="43" t="s">
+      <c r="F140" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
       <c r="E141" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F141" s="43" t="s">
+      <c r="F141" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
+      <c r="A142" s="53"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
       <c r="E142" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F142" s="43" t="s">
+      <c r="F142" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
+      <c r="A143" s="53"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
       <c r="E143" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F143" s="43" t="s">
+      <c r="F143" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
       <c r="E144" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F144" s="37" t="s">
+      <c r="F144" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G144" s="8" t="s">
@@ -3870,470 +3870,470 @@
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A145" s="31"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
+      <c r="A145" s="53"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
       <c r="E145" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F145" s="43" t="s">
+      <c r="F145" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
       <c r="E146" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F146" s="43" t="s">
+      <c r="F146" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
       <c r="E147" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F147" s="43" t="s">
+      <c r="F147" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
+      <c r="A148" s="53"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
       <c r="E148" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F148" s="43" t="s">
+      <c r="F148" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
+      <c r="A149" s="53"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
       <c r="E149" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F149" s="43" t="s">
+      <c r="F149" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
+      <c r="A150" s="53"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
       <c r="E150" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F150" s="43" t="s">
+      <c r="F150" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
+      <c r="A151" s="53"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="53"/>
       <c r="E151" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F151" s="43" t="s">
+      <c r="F151" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
     <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
+      <c r="A152" s="53"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
       <c r="E152" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F152" s="43" t="s">
+      <c r="F152" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
       <c r="E153" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F153" s="43" t="s">
+      <c r="F153" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
+      <c r="A154" s="53"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="53"/>
       <c r="E154" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F154" s="43" t="s">
+      <c r="F154" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
     <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
       <c r="E155" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F155" s="43" t="s">
+      <c r="F155" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A156" s="31"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
       <c r="E156" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F156" s="43" t="s">
+      <c r="F156" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A157" s="31"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
+      <c r="A157" s="53"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
       <c r="E157" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F157" s="43" t="s">
+      <c r="F157" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A158" s="31"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
+      <c r="A158" s="53"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
       <c r="E158" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F158" s="46" t="s">
+      <c r="F158" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
+      <c r="A159" s="53"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
       <c r="E159" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F159" s="43" t="s">
+      <c r="F159" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
+      <c r="A160" s="53"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="53"/>
       <c r="E160" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F160" s="43" t="s">
+      <c r="F160" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A161" s="31"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+      <c r="A161" s="53"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="53"/>
       <c r="E161" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F161" s="43" t="s">
+      <c r="F161" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A162" s="31"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
+      <c r="A162" s="53"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="53"/>
       <c r="E162" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F162" s="43" t="s">
+      <c r="F162" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A163" s="31"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="53"/>
       <c r="E163" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F163" s="43" t="s">
+      <c r="F163" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A164" s="31"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="53"/>
       <c r="E164" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F164" s="43" t="s">
+      <c r="F164" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A165" s="31"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53"/>
       <c r="E165" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F165" s="43" t="s">
+      <c r="F165" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A166" s="31"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
       <c r="E166" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F166" s="43" t="s">
+      <c r="F166" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A167" s="31"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="53"/>
       <c r="E167" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F167" s="43" t="s">
+      <c r="F167" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
+      <c r="A168" s="53"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="53"/>
       <c r="E168" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F168" s="43" t="s">
+      <c r="F168" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
     <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A169" s="31"/>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
+      <c r="A169" s="53"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53"/>
       <c r="E169" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F169" s="43" t="s">
+      <c r="F169" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
     <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A170" s="31"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
+      <c r="A170" s="53"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="53"/>
       <c r="E170" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F170" s="43" t="s">
+      <c r="F170" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A171" s="31"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
+      <c r="A171" s="53"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="53"/>
       <c r="E171" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F171" s="43" t="s">
+      <c r="F171" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
     <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
+      <c r="A172" s="53"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
       <c r="E172" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F172" s="43" t="s">
+      <c r="F172" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
     <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A173" s="31"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+      <c r="A173" s="53"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="53"/>
       <c r="E173" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F173" s="43" t="s">
+      <c r="F173" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A174" s="31"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
+      <c r="A174" s="53"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="53"/>
       <c r="E174" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="43" t="s">
+      <c r="F174" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
     <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
       <c r="E175" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F175" s="43" t="s">
+      <c r="F175" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="33">
+    <row r="176" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="55">
         <v>1.8</v>
       </c>
-      <c r="B176" s="33" t="s">
+      <c r="B176" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="D176" s="52" t="s">
         <v>228</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F176" s="42" t="s">
+      <c r="F176" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
     <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A177" s="31"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
+      <c r="A177" s="53"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
       <c r="E177" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F177" s="37" t="s">
+      <c r="F177" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G177" s="8" t="s">
@@ -4342,1288 +4342,1288 @@
       <c r="H177" s="5"/>
     </row>
     <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A178" s="31"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
       <c r="E178" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F178" s="43" t="s">
+      <c r="F178" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
     <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A179" s="31"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
       <c r="E179" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F179" s="43" t="s">
+      <c r="F179" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
     <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A180" s="31"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
       <c r="E180" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F180" s="43" t="s">
+      <c r="F180" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
     <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A181" s="31"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
+      <c r="A181" s="53"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
       <c r="E181" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F181" s="43" t="s">
+      <c r="F181" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
     <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A182" s="31"/>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="A182" s="53"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
       <c r="E182" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F182" s="46" t="s">
+      <c r="F182" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
     </row>
     <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A183" s="31"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
       <c r="E183" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F183" s="43" t="s">
+      <c r="F183" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
     </row>
     <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
+      <c r="A184" s="54"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="54"/>
       <c r="E184" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F184" s="43" t="s">
+      <c r="F184" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="33">
+    <row r="185" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="55">
         <v>1.9</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C185" s="33" t="s">
+      <c r="C185" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="D185" s="52" t="s">
         <v>241</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F185" s="42" t="s">
+      <c r="F185" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
     <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A186" s="31"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
+      <c r="A186" s="53"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="53"/>
       <c r="E186" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F186" s="43" t="s">
+      <c r="F186" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
     </row>
     <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A187" s="31"/>
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31"/>
+      <c r="A187" s="53"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="53"/>
       <c r="E187" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F187" s="43" t="s">
+      <c r="F187" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
     <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A188" s="31"/>
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
+      <c r="A188" s="53"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="53"/>
       <c r="E188" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F188" s="43" t="s">
+      <c r="F188" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A189" s="31"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31"/>
+      <c r="A189" s="53"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
       <c r="E189" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F189" s="43" t="s">
+      <c r="F189" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
     </row>
     <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A190" s="31"/>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
       <c r="E190" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F190" s="43" t="s">
+      <c r="F190" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
     </row>
     <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A191" s="31"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="53"/>
       <c r="E191" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F191" s="43" t="s">
+      <c r="F191" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
     </row>
     <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A192" s="31"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="53"/>
       <c r="E192" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F192" s="43" t="s">
+      <c r="F192" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
     <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A193" s="31"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="53"/>
       <c r="E193" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F193" s="43" t="s">
+      <c r="F193" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
     <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
+      <c r="A194" s="54"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="54"/>
       <c r="E194" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="F194" s="43" t="s">
+      <c r="F194" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
     </row>
     <row r="195" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="30">
+      <c r="A195" s="52">
         <v>2.1</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C195" s="34" t="s">
+      <c r="C195" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D195" s="30" t="s">
+      <c r="D195" s="52" t="s">
         <v>254</v>
       </c>
       <c r="E195" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F195" s="44" t="s">
+      <c r="F195" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
     <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A196" s="31"/>
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="31"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
       <c r="E196" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F196" s="45" t="s">
+      <c r="F196" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
     <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="53"/>
       <c r="E197" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F197" s="45" t="s">
+      <c r="F197" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A198" s="31"/>
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="53"/>
       <c r="E198" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F198" s="45" t="s">
+      <c r="F198" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
     </row>
     <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A199" s="31"/>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
+      <c r="A199" s="53"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="53"/>
       <c r="E199" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F199" s="45" t="s">
+      <c r="F199" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
     </row>
     <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A200" s="31"/>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
+      <c r="A200" s="53"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="53"/>
       <c r="E200" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F200" s="45" t="s">
+      <c r="F200" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
     <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A201" s="31"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
+      <c r="A201" s="53"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="53"/>
       <c r="E201" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F201" s="45" t="s">
+      <c r="F201" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
     <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A202" s="31"/>
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="31"/>
+      <c r="A202" s="53"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="53"/>
       <c r="E202" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F202" s="45" t="s">
+      <c r="F202" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
     <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A203" s="31"/>
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
+      <c r="A203" s="53"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="53"/>
       <c r="E203" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F203" s="45" t="s">
+      <c r="F203" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
     <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A204" s="31"/>
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="31"/>
+      <c r="A204" s="53"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="53"/>
       <c r="E204" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F204" s="45" t="s">
+      <c r="F204" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
     <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A205" s="31"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
+      <c r="A205" s="53"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="53"/>
       <c r="E205" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F205" s="45" t="s">
+      <c r="F205" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
     <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A206" s="31"/>
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
+      <c r="A206" s="53"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="53"/>
       <c r="E206" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F206" s="45" t="s">
+      <c r="F206" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
     </row>
     <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A207" s="31"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
+      <c r="A207" s="53"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="53"/>
       <c r="E207" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F207" s="45" t="s">
+      <c r="F207" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
     </row>
     <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A208" s="31"/>
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31"/>
+      <c r="A208" s="53"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="53"/>
       <c r="E208" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F208" s="45" t="s">
+      <c r="F208" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
     </row>
     <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A209" s="31"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
+      <c r="A209" s="53"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="53"/>
       <c r="E209" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F209" s="45" t="s">
+      <c r="F209" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
     </row>
     <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A210" s="31"/>
-      <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31"/>
+      <c r="A210" s="53"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="53"/>
       <c r="E210" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F210" s="45" t="s">
+      <c r="F210" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
     </row>
     <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A211" s="31"/>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
+      <c r="A211" s="53"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="53"/>
       <c r="E211" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F211" s="45" t="s">
+      <c r="F211" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
     </row>
     <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A212" s="31"/>
-      <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31"/>
+      <c r="A212" s="53"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
       <c r="E212" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F212" s="45" t="s">
+      <c r="F212" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
     </row>
     <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A213" s="31"/>
-      <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
+      <c r="A213" s="53"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="53"/>
       <c r="E213" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F213" s="45" t="s">
+      <c r="F213" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
     </row>
     <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="54"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="54"/>
       <c r="E214" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F214" s="45" t="s">
+      <c r="F214" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
     </row>
     <row r="215" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="30">
+      <c r="A215" s="52">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="D215" s="30" t="s">
+      <c r="D215" s="52" t="s">
         <v>277</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F215" s="45" t="s">
+      <c r="F215" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
     </row>
     <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A216" s="31"/>
-      <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
+      <c r="A216" s="53"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="53"/>
       <c r="E216" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F216" s="45" t="s">
+      <c r="F216" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
     <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A217" s="31"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="53"/>
       <c r="E217" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F217" s="45" t="s">
+      <c r="F217" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
     <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A218" s="31"/>
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
       <c r="E218" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F218" s="45" t="s">
+      <c r="F218" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
     <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A219" s="31"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="53"/>
       <c r="E219" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F219" s="45" t="s">
+      <c r="F219" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
     </row>
     <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A220" s="31"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
+      <c r="A220" s="53"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
       <c r="E220" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F220" s="45" t="s">
+      <c r="F220" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
     </row>
     <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A221" s="31"/>
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
       <c r="E221" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F221" s="45" t="s">
+      <c r="F221" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
     </row>
     <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A222" s="31"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="31"/>
+      <c r="A222" s="53"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="53"/>
       <c r="E222" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="F222" s="45" t="s">
+      <c r="F222" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
     </row>
     <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
+      <c r="A223" s="54"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F223" s="45" t="s">
+      <c r="F223" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="33">
+      <c r="A224" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B224" s="33" t="s">
+      <c r="B224" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="C224" s="33" t="s">
+      <c r="C224" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="D224" s="30" t="s">
+      <c r="D224" s="52" t="s">
         <v>289</v>
       </c>
       <c r="E224" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F224" s="45" t="s">
+      <c r="F224" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
     <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="31"/>
+      <c r="A225" s="53"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="53"/>
       <c r="E225" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F225" s="45" t="s">
+      <c r="F225" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
     </row>
     <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A226" s="31"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31"/>
+      <c r="A226" s="53"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="53"/>
       <c r="E226" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F226" s="45" t="s">
+      <c r="F226" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
     </row>
     <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A227" s="31"/>
-      <c r="B227" s="31"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
+      <c r="A227" s="53"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
       <c r="E227" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F227" s="45" t="s">
+      <c r="F227" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
     </row>
     <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A228" s="31"/>
-      <c r="B228" s="31"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="31"/>
+      <c r="A228" s="53"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="53"/>
       <c r="E228" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F228" s="45" t="s">
+      <c r="F228" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
     </row>
     <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A229" s="31"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="31"/>
+      <c r="A229" s="53"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="53"/>
       <c r="E229" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F229" s="45" t="s">
+      <c r="F229" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
     <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A230" s="31"/>
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
+      <c r="A230" s="53"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="53"/>
       <c r="E230" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F230" s="45" t="s">
+      <c r="F230" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
     </row>
     <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A231" s="31"/>
-      <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31"/>
+      <c r="A231" s="53"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="53"/>
       <c r="E231" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F231" s="45" t="s">
+      <c r="F231" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
     </row>
     <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A232" s="31"/>
-      <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
+      <c r="A232" s="53"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="53"/>
       <c r="E232" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F232" s="45" t="s">
+      <c r="F232" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
     </row>
     <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A233" s="31"/>
-      <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
+      <c r="A233" s="53"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="53"/>
       <c r="E233" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F233" s="45" t="s">
+      <c r="F233" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
     </row>
     <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A234" s="31"/>
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
+      <c r="A234" s="53"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="53"/>
       <c r="E234" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F234" s="45" t="s">
+      <c r="F234" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A235" s="31"/>
-      <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
+      <c r="A235" s="53"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="53"/>
       <c r="E235" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F235" s="45" t="s">
+      <c r="F235" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
     </row>
     <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A236" s="32"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="32"/>
+      <c r="A236" s="54"/>
+      <c r="B236" s="54"/>
+      <c r="C236" s="54"/>
+      <c r="D236" s="54"/>
       <c r="E236" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F236" s="45" t="s">
+      <c r="F236" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="33">
+      <c r="A237" s="55">
         <v>2.4</v>
       </c>
-      <c r="B237" s="33" t="s">
+      <c r="B237" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="C237" s="33" t="s">
+      <c r="C237" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="D237" s="30" t="s">
+      <c r="D237" s="52" t="s">
         <v>305</v>
       </c>
       <c r="E237" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="F237" s="45" t="s">
+      <c r="F237" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
     </row>
     <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A238" s="31"/>
-      <c r="B238" s="31"/>
-      <c r="C238" s="31"/>
-      <c r="D238" s="31"/>
+      <c r="A238" s="53"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="53"/>
       <c r="E238" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F238" s="45" t="s">
+      <c r="F238" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
     </row>
     <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A239" s="31"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
+      <c r="A239" s="53"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="53"/>
       <c r="E239" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F239" s="45" t="s">
+      <c r="F239" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A240" s="31"/>
-      <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
-      <c r="D240" s="31"/>
+      <c r="A240" s="53"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="53"/>
       <c r="E240" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F240" s="45" t="s">
+      <c r="F240" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
     <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A241" s="31"/>
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
-      <c r="D241" s="31"/>
+      <c r="A241" s="53"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="53"/>
       <c r="E241" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F241" s="45" t="s">
+      <c r="F241" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
     <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A242" s="31"/>
-      <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="31"/>
+      <c r="A242" s="53"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
       <c r="E242" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F242" s="45" t="s">
+      <c r="F242" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
     <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A243" s="31"/>
-      <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
+      <c r="A243" s="53"/>
+      <c r="B243" s="53"/>
+      <c r="C243" s="53"/>
+      <c r="D243" s="53"/>
       <c r="E243" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F243" s="45" t="s">
+      <c r="F243" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
     <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A244" s="31"/>
-      <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
+      <c r="A244" s="53"/>
+      <c r="B244" s="53"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="53"/>
       <c r="E244" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F244" s="45" t="s">
+      <c r="F244" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
     <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A245" s="31"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
+      <c r="A245" s="53"/>
+      <c r="B245" s="53"/>
+      <c r="C245" s="53"/>
+      <c r="D245" s="53"/>
       <c r="E245" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F245" s="45" t="s">
+      <c r="F245" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
     </row>
     <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A246" s="31"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31"/>
+      <c r="A246" s="53"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="53"/>
+      <c r="D246" s="53"/>
       <c r="E246" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F246" s="45" t="s">
+      <c r="F246" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
     </row>
     <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A247" s="31"/>
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
+      <c r="A247" s="53"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="53"/>
+      <c r="D247" s="53"/>
       <c r="E247" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F247" s="45" t="s">
+      <c r="F247" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
     </row>
     <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A248" s="31"/>
-      <c r="B248" s="31"/>
-      <c r="C248" s="31"/>
-      <c r="D248" s="31"/>
+      <c r="A248" s="53"/>
+      <c r="B248" s="53"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="53"/>
       <c r="E248" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F248" s="45" t="s">
+      <c r="F248" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
     </row>
     <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A249" s="32"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="54"/>
+      <c r="C249" s="54"/>
+      <c r="D249" s="54"/>
       <c r="E249" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F249" s="45" t="s">
+      <c r="F249" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
     </row>
     <row r="250" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="33">
+      <c r="A250" s="55">
         <v>2.5</v>
       </c>
-      <c r="B250" s="33" t="s">
+      <c r="B250" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="C250" s="33" t="s">
+      <c r="C250" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="D250" s="30" t="s">
+      <c r="D250" s="52" t="s">
         <v>321</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F250" s="45" t="s">
+      <c r="F250" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
     </row>
     <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A251" s="31"/>
-      <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
-      <c r="D251" s="31"/>
+      <c r="A251" s="53"/>
+      <c r="B251" s="53"/>
+      <c r="C251" s="53"/>
+      <c r="D251" s="53"/>
       <c r="E251" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="F251" s="45" t="s">
+      <c r="F251" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
     </row>
     <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A252" s="31"/>
-      <c r="B252" s="31"/>
-      <c r="C252" s="31"/>
-      <c r="D252" s="31"/>
+      <c r="A252" s="53"/>
+      <c r="B252" s="53"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="53"/>
       <c r="E252" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="F252" s="45" t="s">
+      <c r="F252" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
     </row>
     <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A253" s="31"/>
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
+      <c r="A253" s="53"/>
+      <c r="B253" s="53"/>
+      <c r="C253" s="53"/>
+      <c r="D253" s="53"/>
       <c r="E253" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F253" s="45" t="s">
+      <c r="F253" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
     </row>
     <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A254" s="31"/>
-      <c r="B254" s="31"/>
-      <c r="C254" s="31"/>
-      <c r="D254" s="31"/>
+      <c r="A254" s="53"/>
+      <c r="B254" s="53"/>
+      <c r="C254" s="53"/>
+      <c r="D254" s="53"/>
       <c r="E254" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F254" s="45" t="s">
+      <c r="F254" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
     </row>
     <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A255" s="31"/>
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
-      <c r="D255" s="31"/>
+      <c r="A255" s="53"/>
+      <c r="B255" s="53"/>
+      <c r="C255" s="53"/>
+      <c r="D255" s="53"/>
       <c r="E255" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F255" s="45" t="s">
+      <c r="F255" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
     </row>
     <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A256" s="31"/>
-      <c r="B256" s="31"/>
-      <c r="C256" s="31"/>
-      <c r="D256" s="31"/>
+      <c r="A256" s="53"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="53"/>
+      <c r="D256" s="53"/>
       <c r="E256" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F256" s="45" t="s">
+      <c r="F256" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
     </row>
     <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A257" s="31"/>
-      <c r="B257" s="31"/>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31"/>
+      <c r="A257" s="53"/>
+      <c r="B257" s="53"/>
+      <c r="C257" s="53"/>
+      <c r="D257" s="53"/>
       <c r="E257" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F257" s="45" t="s">
+      <c r="F257" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
     </row>
     <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A258" s="31"/>
-      <c r="B258" s="31"/>
-      <c r="C258" s="31"/>
-      <c r="D258" s="31"/>
+      <c r="A258" s="53"/>
+      <c r="B258" s="53"/>
+      <c r="C258" s="53"/>
+      <c r="D258" s="53"/>
       <c r="E258" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F258" s="45" t="s">
+      <c r="F258" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
     </row>
     <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A259" s="31"/>
-      <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
-      <c r="D259" s="31"/>
+      <c r="A259" s="53"/>
+      <c r="B259" s="53"/>
+      <c r="C259" s="53"/>
+      <c r="D259" s="53"/>
       <c r="E259" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F259" s="45" t="s">
+      <c r="F259" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
     </row>
     <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A260" s="31"/>
-      <c r="B260" s="31"/>
-      <c r="C260" s="31"/>
-      <c r="D260" s="31"/>
+      <c r="A260" s="53"/>
+      <c r="B260" s="53"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="53"/>
       <c r="E260" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="F260" s="45" t="s">
+      <c r="F260" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
     </row>
     <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A261" s="31"/>
-      <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31"/>
+      <c r="A261" s="53"/>
+      <c r="B261" s="53"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="53"/>
       <c r="E261" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F261" s="45" t="s">
+      <c r="F261" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
     </row>
     <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A262" s="32"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
-      <c r="D262" s="32"/>
+      <c r="A262" s="54"/>
+      <c r="B262" s="54"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="54"/>
       <c r="E262" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F262" s="45" t="s">
+      <c r="F262" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="33">
+      <c r="A263" s="55">
         <v>2.6</v>
       </c>
-      <c r="B263" s="33" t="s">
+      <c r="B263" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="C263" s="33" t="s">
+      <c r="C263" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="D263" s="30" t="s">
+      <c r="D263" s="52" t="s">
         <v>337</v>
       </c>
       <c r="E263" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F263" s="45" t="s">
+      <c r="F263" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
     </row>
     <row r="264" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A264" s="31"/>
-      <c r="B264" s="31"/>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
+      <c r="A264" s="53"/>
+      <c r="B264" s="53"/>
+      <c r="C264" s="53"/>
+      <c r="D264" s="53"/>
       <c r="E264" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F264" s="45" t="s">
+      <c r="F264" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
     </row>
     <row r="265" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="32"/>
-      <c r="B265" s="32"/>
-      <c r="C265" s="32"/>
-      <c r="D265" s="32"/>
+      <c r="A265" s="54"/>
+      <c r="B265" s="54"/>
+      <c r="C265" s="54"/>
+      <c r="D265" s="54"/>
       <c r="E265" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F265" s="45" t="s">
+      <c r="F265" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="5"/>
@@ -5631,26 +5631,29 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D263:D265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="B176:B184"/>
-    <mergeCell ref="A176:A184"/>
-    <mergeCell ref="D115:D138"/>
-    <mergeCell ref="D139:D175"/>
-    <mergeCell ref="C139:C175"/>
-    <mergeCell ref="B139:B175"/>
-    <mergeCell ref="A139:A175"/>
-    <mergeCell ref="D176:D184"/>
-    <mergeCell ref="C176:C184"/>
-    <mergeCell ref="D93:D114"/>
-    <mergeCell ref="C93:C114"/>
-    <mergeCell ref="B93:B114"/>
-    <mergeCell ref="A93:A114"/>
-    <mergeCell ref="C115:C138"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="A115:A138"/>
+    <mergeCell ref="D185:D194"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="B185:B194"/>
+    <mergeCell ref="A185:A194"/>
+    <mergeCell ref="C195:C214"/>
+    <mergeCell ref="B195:B214"/>
+    <mergeCell ref="A195:A214"/>
+    <mergeCell ref="D195:D214"/>
+    <mergeCell ref="A250:A262"/>
+    <mergeCell ref="D250:D262"/>
+    <mergeCell ref="D215:D223"/>
+    <mergeCell ref="C215:C223"/>
+    <mergeCell ref="B215:B223"/>
+    <mergeCell ref="A215:A223"/>
+    <mergeCell ref="D224:D236"/>
+    <mergeCell ref="C224:C236"/>
+    <mergeCell ref="D10:D33"/>
+    <mergeCell ref="C10:C33"/>
+    <mergeCell ref="B10:B33"/>
+    <mergeCell ref="A10:A33"/>
+    <mergeCell ref="C34:C56"/>
+    <mergeCell ref="B34:B56"/>
+    <mergeCell ref="A34:A56"/>
     <mergeCell ref="B68:B92"/>
     <mergeCell ref="A68:A92"/>
     <mergeCell ref="D34:D56"/>
@@ -5660,13 +5663,26 @@
     <mergeCell ref="A57:A67"/>
     <mergeCell ref="D68:D92"/>
     <mergeCell ref="C68:C92"/>
-    <mergeCell ref="D10:D33"/>
-    <mergeCell ref="C10:C33"/>
-    <mergeCell ref="B10:B33"/>
-    <mergeCell ref="A10:A33"/>
-    <mergeCell ref="C34:C56"/>
-    <mergeCell ref="B34:B56"/>
-    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="D93:D114"/>
+    <mergeCell ref="C93:C114"/>
+    <mergeCell ref="B93:B114"/>
+    <mergeCell ref="A93:A114"/>
+    <mergeCell ref="C115:C138"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="A115:A138"/>
+    <mergeCell ref="D115:D138"/>
+    <mergeCell ref="D139:D175"/>
+    <mergeCell ref="C139:C175"/>
+    <mergeCell ref="B139:B175"/>
+    <mergeCell ref="A139:A175"/>
+    <mergeCell ref="D263:D265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="B176:B184"/>
+    <mergeCell ref="A176:A184"/>
+    <mergeCell ref="D176:D184"/>
+    <mergeCell ref="C176:C184"/>
     <mergeCell ref="C250:C262"/>
     <mergeCell ref="B250:B262"/>
     <mergeCell ref="B224:B236"/>
@@ -5675,22 +5691,6 @@
     <mergeCell ref="C237:C249"/>
     <mergeCell ref="A237:A249"/>
     <mergeCell ref="B237:B249"/>
-    <mergeCell ref="A250:A262"/>
-    <mergeCell ref="D250:D262"/>
-    <mergeCell ref="D215:D223"/>
-    <mergeCell ref="C215:C223"/>
-    <mergeCell ref="B215:B223"/>
-    <mergeCell ref="A215:A223"/>
-    <mergeCell ref="D224:D236"/>
-    <mergeCell ref="C224:C236"/>
-    <mergeCell ref="D185:D194"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="B185:B194"/>
-    <mergeCell ref="A185:A194"/>
-    <mergeCell ref="C195:C214"/>
-    <mergeCell ref="B195:B214"/>
-    <mergeCell ref="A195:A214"/>
-    <mergeCell ref="D195:D214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5705,7 +5705,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5730,10 +5730,10 @@
         <v>342</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -5744,10 +5744,10 @@
         <v>345</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="51">
         <v>324</v>
       </c>
     </row>
@@ -5760,10 +5760,10 @@
         <v>342</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="46">
         <v>324</v>
       </c>
     </row>
@@ -5776,10 +5776,10 @@
         <v>345</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="47">
         <v>304</v>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
         <v>345</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="25">
@@ -5804,14 +5804,14 @@
       <c r="B8" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="50" t="s">
         <v>355</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="48">
         <v>0</v>
       </c>
     </row>

--- a/OpenCart-ManualTesting-main/RTM (Opencart).xlsx
+++ b/OpenCart-ManualTesting-main/RTM (Opencart).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,12 +1267,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFFF6D01"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1506,17 +1500,16 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,7 +1518,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,15 +1527,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1544,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,19 +1555,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,8 +1789,8 @@
   </sheetPr>
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1806,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1820,7 +1814,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1828,7 +1822,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1836,7 +1830,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1844,7 +1838,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -1852,14 +1846,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>46038</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="34" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="60" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1883,7 @@
       <c r="A10" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -1901,17 +1895,17 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1924,136 +1918,136 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7" t="s">
         <v>34</v>
       </c>
@@ -2066,38 +2060,38 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7" t="s">
         <v>38</v>
       </c>
@@ -2110,24 +2104,24 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2140,228 +2134,228 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="43" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
+    <row r="34" spans="1:8" s="42" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54">
         <v>1.2</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="F34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="7" t="s">
         <v>61</v>
       </c>
@@ -2374,10 +2368,10 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="7" t="s">
         <v>63</v>
       </c>
@@ -2390,24 +2384,24 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="7" t="s">
         <v>67</v>
       </c>
@@ -2420,38 +2414,38 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="7" t="s">
         <v>71</v>
       </c>
@@ -2464,10 +2458,10 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="7" t="s">
         <v>73</v>
       </c>
@@ -2480,10 +2474,10 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="7" t="s">
         <v>75</v>
       </c>
@@ -2496,10 +2490,10 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="7" t="s">
         <v>77</v>
       </c>
@@ -2512,172 +2506,172 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55">
+      <c r="A57" s="54">
         <v>1.3</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="51" t="s">
         <v>86</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="10" t="s">
         <v>93</v>
       </c>
@@ -2690,368 +2684,368 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55">
+      <c r="A68" s="54">
         <v>1.4</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="51" t="s">
         <v>101</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="F71" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F80" s="39" t="s">
+      <c r="F80" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="36" t="s">
+      <c r="F82" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="F83" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F84" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F85" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="36" t="s">
+      <c r="F86" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="36" t="s">
+      <c r="F87" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="12" t="s">
         <v>123</v>
       </c>
@@ -3064,158 +3058,158 @@
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="F90" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="52">
+      <c r="A93" s="51">
         <v>1.5</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="51" t="s">
         <v>130</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="F93" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="36" t="s">
+      <c r="F94" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="36" t="s">
+      <c r="F95" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F96" s="36" t="s">
+      <c r="F96" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F98" s="36" t="s">
+      <c r="F98" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="F99" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="14" t="s">
         <v>138</v>
       </c>
@@ -3228,10 +3222,10 @@
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="14" t="s">
         <v>140</v>
       </c>
@@ -3244,10 +3238,10 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="14" t="s">
         <v>142</v>
       </c>
@@ -3260,38 +3254,38 @@
       <c r="H102" s="5"/>
     </row>
     <row r="103" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F103" s="36" t="s">
+      <c r="F103" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A104" s="53"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="14" t="s">
         <v>146</v>
       </c>
@@ -3304,80 +3298,80 @@
       <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="36" t="s">
+      <c r="F106" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F107" s="36" t="s">
+      <c r="F107" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F108" s="36" t="s">
+      <c r="F108" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F109" s="36" t="s">
+      <c r="F109" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F110" s="36" t="s">
+      <c r="F110" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="14" t="s">
         <v>153</v>
       </c>
@@ -3390,474 +3384,474 @@
       <c r="H111" s="5"/>
     </row>
     <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A112" s="53"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F112" s="36" t="s">
+      <c r="F112" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
     <row r="113" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A113" s="53"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F113" s="36" t="s">
+      <c r="F113" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F114" s="36" t="s">
+      <c r="F114" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="55">
+      <c r="A115" s="54">
         <v>1.6</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="51" t="s">
         <v>160</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F115" s="39" t="s">
+      <c r="F115" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
       <c r="E117" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A118" s="53"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
       <c r="E118" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F118" s="39" t="s">
+      <c r="F118" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A119" s="53"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
       <c r="E119" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A120" s="53"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
       <c r="E120" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F120" s="39" t="s">
+      <c r="F120" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
       <c r="E121" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
       <c r="E122" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F122" s="39" t="s">
+      <c r="F122" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
       <c r="E123" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F123" s="39" t="s">
+      <c r="F123" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
       <c r="E124" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F124" s="39" t="s">
+      <c r="F124" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A125" s="53"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
       <c r="E125" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A126" s="53"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
       <c r="E126" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="39" t="s">
+      <c r="F126" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A127" s="53"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
       <c r="E127" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="39" t="s">
+      <c r="F127" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A128" s="53"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
       <c r="E128" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F128" s="39" t="s">
+      <c r="F128" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
       <c r="E129" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F129" s="39" t="s">
+      <c r="F129" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A130" s="53"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
       <c r="E130" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
       <c r="E131" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F131" s="39" t="s">
+      <c r="F131" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
       <c r="E132" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F132" s="39" t="s">
+      <c r="F132" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
       <c r="E133" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F133" s="39" t="s">
+      <c r="F133" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
       <c r="E134" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F134" s="39" t="s">
+      <c r="F134" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A135" s="53"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
       <c r="E135" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F135" s="39" t="s">
+      <c r="F135" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
       <c r="E136" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F136" s="39" t="s">
+      <c r="F136" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A137" s="53"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="53"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="39" t="s">
+      <c r="F137" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
       <c r="E138" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F138" s="39" t="s">
+      <c r="F138" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
     <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A139" s="55">
+      <c r="A139" s="54">
         <v>1.7</v>
       </c>
-      <c r="B139" s="55" t="s">
+      <c r="B139" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="C139" s="55" t="s">
+      <c r="C139" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D139" s="52" t="s">
+      <c r="D139" s="51" t="s">
         <v>187</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F139" s="35" t="s">
+      <c r="F139" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
       <c r="E140" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F140" s="36" t="s">
+      <c r="F140" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A141" s="53"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="53"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
       <c r="E141" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F141" s="36" t="s">
+      <c r="F141" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A142" s="53"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="53"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
       <c r="E142" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F142" s="36" t="s">
+      <c r="F142" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A143" s="53"/>
-      <c r="B143" s="53"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="53"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
       <c r="E143" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F143" s="36" t="s">
+      <c r="F143" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A144" s="53"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
       <c r="E144" s="12" t="s">
         <v>193</v>
       </c>
@@ -3870,466 +3864,466 @@
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A145" s="53"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="53"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="52"/>
       <c r="E145" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F145" s="36" t="s">
+      <c r="F145" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A146" s="53"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
       <c r="E146" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F146" s="36" t="s">
+      <c r="F146" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
       <c r="E147" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F147" s="36" t="s">
+      <c r="F147" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A148" s="53"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="52"/>
       <c r="E148" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F148" s="36" t="s">
+      <c r="F148" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A149" s="53"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="53"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
       <c r="E149" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F149" s="36" t="s">
+      <c r="F149" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A150" s="53"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="52"/>
       <c r="E150" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F150" s="36" t="s">
+      <c r="F150" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A151" s="53"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="53"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
       <c r="E151" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F151" s="36" t="s">
+      <c r="F151" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
     <row r="152" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A152" s="53"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="53"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="52"/>
       <c r="E152" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F152" s="36" t="s">
+      <c r="F152" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A153" s="53"/>
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F153" s="36" t="s">
+      <c r="F153" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A154" s="53"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="53"/>
-      <c r="D154" s="53"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="52"/>
       <c r="E154" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F154" s="36" t="s">
+      <c r="F154" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
     <row r="155" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A155" s="53"/>
-      <c r="B155" s="53"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F155" s="36" t="s">
+      <c r="F155" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A156" s="53"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="53"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
       <c r="E156" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F156" s="36" t="s">
+      <c r="F156" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A157" s="53"/>
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="53"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F157" s="36" t="s">
+      <c r="F157" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A158" s="53"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F158" s="39" t="s">
+      <c r="F158" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A159" s="53"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F159" s="36" t="s">
+      <c r="F159" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A160" s="53"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="53"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="52"/>
       <c r="E160" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F160" s="36" t="s">
+      <c r="F160" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A161" s="53"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="53"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
       <c r="E161" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F161" s="36" t="s">
+      <c r="F161" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A162" s="53"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="53"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="52"/>
       <c r="E162" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F162" s="36" t="s">
+      <c r="F162" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="53"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
+      <c r="D163" s="52"/>
       <c r="E163" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F163" s="36" t="s">
+      <c r="F163" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="53"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
       <c r="E164" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F164" s="36" t="s">
+      <c r="F164" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="53"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="52"/>
       <c r="E165" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F165" s="36" t="s">
+      <c r="F165" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="53"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
+      <c r="D166" s="52"/>
       <c r="E166" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F166" s="36" t="s">
+      <c r="F166" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="53"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52"/>
+      <c r="D167" s="52"/>
       <c r="E167" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F167" s="36" t="s">
+      <c r="F167" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A168" s="53"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="53"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
+      <c r="D168" s="52"/>
       <c r="E168" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F168" s="36" t="s">
+      <c r="F168" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
     <row r="169" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A169" s="53"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
+      <c r="D169" s="52"/>
       <c r="E169" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F169" s="36" t="s">
+      <c r="F169" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
     <row r="170" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A170" s="53"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
+      <c r="D170" s="52"/>
       <c r="E170" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F170" s="36" t="s">
+      <c r="F170" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A171" s="53"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="52"/>
       <c r="E171" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F171" s="36" t="s">
+      <c r="F171" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
     <row r="172" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A172" s="53"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
       <c r="E172" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F172" s="36" t="s">
+      <c r="F172" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
     <row r="173" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A173" s="53"/>
-      <c r="B173" s="53"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="53"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
       <c r="E173" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F173" s="36" t="s">
+      <c r="F173" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A174" s="53"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="53"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="52"/>
       <c r="E174" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="36" t="s">
+      <c r="F174" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
     <row r="175" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
       <c r="E175" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F175" s="36" t="s">
+      <c r="F175" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
     <row r="176" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="55">
+      <c r="A176" s="54">
         <v>1.8</v>
       </c>
-      <c r="B176" s="55" t="s">
+      <c r="B176" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C176" s="55" t="s">
+      <c r="C176" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="D176" s="52" t="s">
+      <c r="D176" s="51" t="s">
         <v>228</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F176" s="35" t="s">
+      <c r="F176" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
     <row r="177" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A177" s="53"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="52"/>
       <c r="E177" s="12" t="s">
         <v>230</v>
       </c>
@@ -4342,1288 +4336,1288 @@
       <c r="H177" s="5"/>
     </row>
     <row r="178" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A178" s="53"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="52"/>
       <c r="E178" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F178" s="36" t="s">
+      <c r="F178" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
     <row r="179" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A179" s="53"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="53"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="52"/>
+      <c r="D179" s="52"/>
       <c r="E179" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F179" s="36" t="s">
+      <c r="F179" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
     <row r="180" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A180" s="53"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="52"/>
+      <c r="D180" s="52"/>
       <c r="E180" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F180" s="36" t="s">
+      <c r="F180" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
     <row r="181" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A181" s="53"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="52"/>
       <c r="E181" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F181" s="36" t="s">
+      <c r="F181" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
     <row r="182" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A182" s="53"/>
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="52"/>
+      <c r="D182" s="52"/>
       <c r="E182" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F182" s="39" t="s">
+      <c r="F182" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
     </row>
     <row r="183" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A183" s="53"/>
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="52"/>
+      <c r="D183" s="52"/>
       <c r="E183" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F183" s="36" t="s">
+      <c r="F183" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
     </row>
     <row r="184" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A184" s="54"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="54"/>
-      <c r="D184" s="54"/>
+      <c r="A184" s="53"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="53"/>
       <c r="E184" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F184" s="36" t="s">
+      <c r="F184" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
     </row>
     <row r="185" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="55">
+      <c r="A185" s="54">
         <v>1.9</v>
       </c>
-      <c r="B185" s="55" t="s">
+      <c r="B185" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="C185" s="55" t="s">
+      <c r="C185" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="D185" s="52" t="s">
+      <c r="D185" s="51" t="s">
         <v>241</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F185" s="35" t="s">
+      <c r="F185" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
     <row r="186" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A186" s="53"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="53"/>
-      <c r="D186" s="53"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="52"/>
+      <c r="D186" s="52"/>
       <c r="E186" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F186" s="36" t="s">
+      <c r="F186" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
     </row>
     <row r="187" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A187" s="53"/>
-      <c r="B187" s="53"/>
-      <c r="C187" s="53"/>
-      <c r="D187" s="53"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="52"/>
+      <c r="D187" s="52"/>
       <c r="E187" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F187" s="36" t="s">
+      <c r="F187" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
     <row r="188" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A188" s="53"/>
-      <c r="B188" s="53"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="53"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="52"/>
+      <c r="D188" s="52"/>
       <c r="E188" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F188" s="36" t="s">
+      <c r="F188" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A189" s="53"/>
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="52"/>
       <c r="E189" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F189" s="36" t="s">
+      <c r="F189" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
     </row>
     <row r="190" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A190" s="53"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="52"/>
       <c r="E190" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F190" s="36" t="s">
+      <c r="F190" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
     </row>
     <row r="191" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A191" s="53"/>
-      <c r="B191" s="53"/>
-      <c r="C191" s="53"/>
-      <c r="D191" s="53"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
       <c r="E191" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F191" s="36" t="s">
+      <c r="F191" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
     </row>
     <row r="192" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A192" s="53"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="53"/>
-      <c r="D192" s="53"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="52"/>
+      <c r="D192" s="52"/>
       <c r="E192" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F192" s="36" t="s">
+      <c r="F192" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
     <row r="193" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="53"/>
-      <c r="D193" s="53"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="52"/>
       <c r="E193" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F193" s="36" t="s">
+      <c r="F193" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
     <row r="194" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A194" s="54"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="54"/>
-      <c r="D194" s="54"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="53"/>
       <c r="E194" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="F194" s="36" t="s">
+      <c r="F194" s="35" t="s">
         <v>21</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
     </row>
     <row r="195" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="52">
+      <c r="A195" s="51">
         <v>2.1</v>
       </c>
-      <c r="B195" s="52" t="s">
+      <c r="B195" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C195" s="58" t="s">
+      <c r="C195" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="D195" s="52" t="s">
+      <c r="D195" s="51" t="s">
         <v>254</v>
       </c>
       <c r="E195" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F195" s="37" t="s">
+      <c r="F195" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
     <row r="196" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A196" s="53"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
       <c r="E196" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F196" s="38" t="s">
+      <c r="F196" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
     <row r="197" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A197" s="53"/>
-      <c r="B197" s="53"/>
-      <c r="C197" s="53"/>
-      <c r="D197" s="53"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
       <c r="E197" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F197" s="38" t="s">
+      <c r="F197" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A198" s="53"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="53"/>
-      <c r="D198" s="53"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
       <c r="E198" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F198" s="38" t="s">
+      <c r="F198" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
     </row>
     <row r="199" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A199" s="53"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="53"/>
-      <c r="D199" s="53"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="52"/>
+      <c r="D199" s="52"/>
       <c r="E199" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F199" s="38" t="s">
+      <c r="F199" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
     </row>
     <row r="200" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A200" s="53"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="53"/>
-      <c r="D200" s="53"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="52"/>
+      <c r="D200" s="52"/>
       <c r="E200" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F200" s="38" t="s">
+      <c r="F200" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
     <row r="201" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A201" s="53"/>
-      <c r="B201" s="53"/>
-      <c r="C201" s="53"/>
-      <c r="D201" s="53"/>
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
       <c r="E201" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F201" s="38" t="s">
+      <c r="F201" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
     <row r="202" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A202" s="53"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="53"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="52"/>
+      <c r="D202" s="52"/>
       <c r="E202" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F202" s="38" t="s">
+      <c r="F202" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
     <row r="203" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A203" s="53"/>
-      <c r="B203" s="53"/>
-      <c r="C203" s="53"/>
-      <c r="D203" s="53"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="52"/>
       <c r="E203" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F203" s="38" t="s">
+      <c r="F203" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
     <row r="204" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A204" s="53"/>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="52"/>
+      <c r="D204" s="52"/>
       <c r="E204" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F204" s="38" t="s">
+      <c r="F204" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
     <row r="205" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A205" s="53"/>
-      <c r="B205" s="53"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="53"/>
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="52"/>
       <c r="E205" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F205" s="38" t="s">
+      <c r="F205" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
     <row r="206" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A206" s="53"/>
-      <c r="B206" s="53"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="52"/>
+      <c r="D206" s="52"/>
       <c r="E206" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F206" s="38" t="s">
+      <c r="F206" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
     </row>
     <row r="207" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A207" s="53"/>
-      <c r="B207" s="53"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="53"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="52"/>
+      <c r="D207" s="52"/>
       <c r="E207" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F207" s="38" t="s">
+      <c r="F207" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
     </row>
     <row r="208" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A208" s="53"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="53"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="52"/>
+      <c r="D208" s="52"/>
       <c r="E208" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F208" s="38" t="s">
+      <c r="F208" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
     </row>
     <row r="209" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A209" s="53"/>
-      <c r="B209" s="53"/>
-      <c r="C209" s="53"/>
-      <c r="D209" s="53"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
       <c r="E209" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F209" s="38" t="s">
+      <c r="F209" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
     </row>
     <row r="210" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A210" s="53"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="53"/>
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="52"/>
+      <c r="D210" s="52"/>
       <c r="E210" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F210" s="38" t="s">
+      <c r="F210" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
     </row>
     <row r="211" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="53"/>
-      <c r="D211" s="53"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
       <c r="E211" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F211" s="38" t="s">
+      <c r="F211" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
     </row>
     <row r="212" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="53"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
       <c r="E212" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F212" s="38" t="s">
+      <c r="F212" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
     </row>
     <row r="213" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="53"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
       <c r="E213" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F213" s="38" t="s">
+      <c r="F213" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
     </row>
     <row r="214" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="54"/>
-      <c r="D214" s="54"/>
+      <c r="A214" s="53"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="53"/>
       <c r="E214" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F214" s="38" t="s">
+      <c r="F214" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
     </row>
     <row r="215" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52">
+      <c r="A215" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B215" s="52" t="s">
+      <c r="B215" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C215" s="58" t="s">
+      <c r="C215" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="D215" s="52" t="s">
+      <c r="D215" s="51" t="s">
         <v>277</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F215" s="38" t="s">
+      <c r="F215" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
     </row>
     <row r="216" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A216" s="53"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="53"/>
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
       <c r="E216" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F216" s="38" t="s">
+      <c r="F216" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
     <row r="217" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A217" s="53"/>
-      <c r="B217" s="53"/>
-      <c r="C217" s="53"/>
-      <c r="D217" s="53"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="52"/>
       <c r="E217" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F217" s="38" t="s">
+      <c r="F217" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
     <row r="218" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
-      <c r="C218" s="53"/>
-      <c r="D218" s="53"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="52"/>
       <c r="E218" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F218" s="38" t="s">
+      <c r="F218" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
     <row r="219" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
-      <c r="C219" s="53"/>
-      <c r="D219" s="53"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="52"/>
       <c r="E219" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F219" s="38" t="s">
+      <c r="F219" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
     </row>
     <row r="220" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A220" s="53"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="53"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="52"/>
       <c r="E220" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F220" s="38" t="s">
+      <c r="F220" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
     </row>
     <row r="221" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A221" s="53"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="53"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
       <c r="E221" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F221" s="38" t="s">
+      <c r="F221" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
     </row>
     <row r="222" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A222" s="53"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="53"/>
-      <c r="D222" s="53"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="52"/>
       <c r="E222" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="F222" s="38" t="s">
+      <c r="F222" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
     </row>
     <row r="223" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A223" s="54"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="54"/>
+      <c r="A223" s="53"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="53"/>
       <c r="E223" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F223" s="38" t="s">
+      <c r="F223" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="55">
+      <c r="A224" s="54">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B224" s="55" t="s">
+      <c r="B224" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C224" s="55" t="s">
+      <c r="C224" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D224" s="52" t="s">
+      <c r="D224" s="51" t="s">
         <v>289</v>
       </c>
       <c r="E224" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F224" s="38" t="s">
+      <c r="F224" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
     <row r="225" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A225" s="53"/>
-      <c r="B225" s="53"/>
-      <c r="C225" s="53"/>
-      <c r="D225" s="53"/>
+      <c r="A225" s="52"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="52"/>
+      <c r="D225" s="52"/>
       <c r="E225" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F225" s="38" t="s">
+      <c r="F225" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
     </row>
     <row r="226" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A226" s="53"/>
-      <c r="B226" s="53"/>
-      <c r="C226" s="53"/>
-      <c r="D226" s="53"/>
+      <c r="A226" s="52"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="52"/>
+      <c r="D226" s="52"/>
       <c r="E226" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F226" s="38" t="s">
+      <c r="F226" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
     </row>
     <row r="227" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A227" s="53"/>
-      <c r="B227" s="53"/>
-      <c r="C227" s="53"/>
-      <c r="D227" s="53"/>
+      <c r="A227" s="52"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="52"/>
       <c r="E227" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F227" s="38" t="s">
+      <c r="F227" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
     </row>
     <row r="228" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A228" s="53"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="53"/>
-      <c r="D228" s="53"/>
+      <c r="A228" s="52"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="52"/>
       <c r="E228" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F228" s="38" t="s">
+      <c r="F228" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
     </row>
     <row r="229" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A229" s="53"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="53"/>
-      <c r="D229" s="53"/>
+      <c r="A229" s="52"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="52"/>
       <c r="E229" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F229" s="38" t="s">
+      <c r="F229" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
     <row r="230" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A230" s="53"/>
-      <c r="B230" s="53"/>
-      <c r="C230" s="53"/>
-      <c r="D230" s="53"/>
+      <c r="A230" s="52"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="52"/>
       <c r="E230" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F230" s="38" t="s">
+      <c r="F230" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
     </row>
     <row r="231" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A231" s="53"/>
-      <c r="B231" s="53"/>
-      <c r="C231" s="53"/>
-      <c r="D231" s="53"/>
+      <c r="A231" s="52"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
+      <c r="D231" s="52"/>
       <c r="E231" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F231" s="38" t="s">
+      <c r="F231" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
     </row>
     <row r="232" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A232" s="53"/>
-      <c r="B232" s="53"/>
-      <c r="C232" s="53"/>
-      <c r="D232" s="53"/>
+      <c r="A232" s="52"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="52"/>
+      <c r="D232" s="52"/>
       <c r="E232" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F232" s="38" t="s">
+      <c r="F232" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
     </row>
     <row r="233" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A233" s="53"/>
-      <c r="B233" s="53"/>
-      <c r="C233" s="53"/>
-      <c r="D233" s="53"/>
+      <c r="A233" s="52"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="52"/>
+      <c r="D233" s="52"/>
       <c r="E233" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F233" s="38" t="s">
+      <c r="F233" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
     </row>
     <row r="234" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A234" s="53"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="53"/>
-      <c r="D234" s="53"/>
+      <c r="A234" s="52"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="52"/>
+      <c r="D234" s="52"/>
       <c r="E234" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F234" s="38" t="s">
+      <c r="F234" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A235" s="53"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="53"/>
-      <c r="D235" s="53"/>
+      <c r="A235" s="52"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="52"/>
       <c r="E235" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F235" s="38" t="s">
+      <c r="F235" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
     </row>
     <row r="236" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A236" s="54"/>
-      <c r="B236" s="54"/>
-      <c r="C236" s="54"/>
-      <c r="D236" s="54"/>
+      <c r="A236" s="53"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="53"/>
       <c r="E236" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F236" s="38" t="s">
+      <c r="F236" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="55">
+      <c r="A237" s="54">
         <v>2.4</v>
       </c>
-      <c r="B237" s="55" t="s">
+      <c r="B237" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="C237" s="55" t="s">
+      <c r="C237" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="D237" s="52" t="s">
+      <c r="D237" s="51" t="s">
         <v>305</v>
       </c>
       <c r="E237" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="F237" s="38" t="s">
+      <c r="F237" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
     </row>
     <row r="238" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A238" s="53"/>
-      <c r="B238" s="53"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="53"/>
+      <c r="A238" s="52"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="52"/>
+      <c r="D238" s="52"/>
       <c r="E238" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F238" s="38" t="s">
+      <c r="F238" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
     </row>
     <row r="239" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A239" s="53"/>
-      <c r="B239" s="53"/>
-      <c r="C239" s="53"/>
-      <c r="D239" s="53"/>
+      <c r="A239" s="52"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="52"/>
+      <c r="D239" s="52"/>
       <c r="E239" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F239" s="38" t="s">
+      <c r="F239" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A240" s="53"/>
-      <c r="B240" s="53"/>
-      <c r="C240" s="53"/>
-      <c r="D240" s="53"/>
+      <c r="A240" s="52"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="52"/>
+      <c r="D240" s="52"/>
       <c r="E240" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F240" s="38" t="s">
+      <c r="F240" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
     <row r="241" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A241" s="53"/>
-      <c r="B241" s="53"/>
-      <c r="C241" s="53"/>
-      <c r="D241" s="53"/>
+      <c r="A241" s="52"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="52"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F241" s="38" t="s">
+      <c r="F241" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
     <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A242" s="53"/>
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="53"/>
+      <c r="A242" s="52"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="52"/>
+      <c r="D242" s="52"/>
       <c r="E242" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F242" s="38" t="s">
+      <c r="F242" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
     <row r="243" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A243" s="53"/>
-      <c r="B243" s="53"/>
-      <c r="C243" s="53"/>
-      <c r="D243" s="53"/>
+      <c r="A243" s="52"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="52"/>
+      <c r="D243" s="52"/>
       <c r="E243" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F243" s="38" t="s">
+      <c r="F243" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
     <row r="244" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A244" s="53"/>
-      <c r="B244" s="53"/>
-      <c r="C244" s="53"/>
-      <c r="D244" s="53"/>
+      <c r="A244" s="52"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="52"/>
+      <c r="D244" s="52"/>
       <c r="E244" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F244" s="38" t="s">
+      <c r="F244" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
     <row r="245" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A245" s="53"/>
-      <c r="B245" s="53"/>
-      <c r="C245" s="53"/>
-      <c r="D245" s="53"/>
+      <c r="A245" s="52"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="52"/>
+      <c r="D245" s="52"/>
       <c r="E245" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F245" s="38" t="s">
+      <c r="F245" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
     </row>
     <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A246" s="53"/>
-      <c r="B246" s="53"/>
-      <c r="C246" s="53"/>
-      <c r="D246" s="53"/>
+      <c r="A246" s="52"/>
+      <c r="B246" s="52"/>
+      <c r="C246" s="52"/>
+      <c r="D246" s="52"/>
       <c r="E246" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F246" s="38" t="s">
+      <c r="F246" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
     </row>
     <row r="247" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A247" s="53"/>
-      <c r="B247" s="53"/>
-      <c r="C247" s="53"/>
-      <c r="D247" s="53"/>
+      <c r="A247" s="52"/>
+      <c r="B247" s="52"/>
+      <c r="C247" s="52"/>
+      <c r="D247" s="52"/>
       <c r="E247" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F247" s="38" t="s">
+      <c r="F247" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
     </row>
     <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A248" s="53"/>
-      <c r="B248" s="53"/>
-      <c r="C248" s="53"/>
-      <c r="D248" s="53"/>
+      <c r="A248" s="52"/>
+      <c r="B248" s="52"/>
+      <c r="C248" s="52"/>
+      <c r="D248" s="52"/>
       <c r="E248" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F248" s="38" t="s">
+      <c r="F248" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
     </row>
     <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A249" s="54"/>
-      <c r="B249" s="54"/>
-      <c r="C249" s="54"/>
-      <c r="D249" s="54"/>
+      <c r="A249" s="53"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="53"/>
       <c r="E249" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F249" s="38" t="s">
+      <c r="F249" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
     </row>
     <row r="250" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="55">
+      <c r="A250" s="54">
         <v>2.5</v>
       </c>
-      <c r="B250" s="55" t="s">
+      <c r="B250" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C250" s="55" t="s">
+      <c r="C250" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="D250" s="52" t="s">
+      <c r="D250" s="51" t="s">
         <v>321</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F250" s="38" t="s">
+      <c r="F250" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
     </row>
     <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A251" s="53"/>
-      <c r="B251" s="53"/>
-      <c r="C251" s="53"/>
-      <c r="D251" s="53"/>
+      <c r="A251" s="52"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
+      <c r="D251" s="52"/>
       <c r="E251" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="F251" s="38" t="s">
+      <c r="F251" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
     </row>
     <row r="252" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A252" s="53"/>
-      <c r="B252" s="53"/>
-      <c r="C252" s="53"/>
-      <c r="D252" s="53"/>
+      <c r="A252" s="52"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="52"/>
+      <c r="D252" s="52"/>
       <c r="E252" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="F252" s="38" t="s">
+      <c r="F252" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
     </row>
     <row r="253" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A253" s="53"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="53"/>
-      <c r="D253" s="53"/>
+      <c r="A253" s="52"/>
+      <c r="B253" s="52"/>
+      <c r="C253" s="52"/>
+      <c r="D253" s="52"/>
       <c r="E253" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F253" s="38" t="s">
+      <c r="F253" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
     </row>
     <row r="254" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A254" s="53"/>
-      <c r="B254" s="53"/>
-      <c r="C254" s="53"/>
-      <c r="D254" s="53"/>
+      <c r="A254" s="52"/>
+      <c r="B254" s="52"/>
+      <c r="C254" s="52"/>
+      <c r="D254" s="52"/>
       <c r="E254" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F254" s="38" t="s">
+      <c r="F254" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
     </row>
     <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A255" s="53"/>
-      <c r="B255" s="53"/>
-      <c r="C255" s="53"/>
-      <c r="D255" s="53"/>
+      <c r="A255" s="52"/>
+      <c r="B255" s="52"/>
+      <c r="C255" s="52"/>
+      <c r="D255" s="52"/>
       <c r="E255" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F255" s="38" t="s">
+      <c r="F255" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
     </row>
     <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A256" s="53"/>
-      <c r="B256" s="53"/>
-      <c r="C256" s="53"/>
-      <c r="D256" s="53"/>
+      <c r="A256" s="52"/>
+      <c r="B256" s="52"/>
+      <c r="C256" s="52"/>
+      <c r="D256" s="52"/>
       <c r="E256" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F256" s="38" t="s">
+      <c r="F256" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
     </row>
     <row r="257" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A257" s="53"/>
-      <c r="B257" s="53"/>
-      <c r="C257" s="53"/>
-      <c r="D257" s="53"/>
+      <c r="A257" s="52"/>
+      <c r="B257" s="52"/>
+      <c r="C257" s="52"/>
+      <c r="D257" s="52"/>
       <c r="E257" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F257" s="38" t="s">
+      <c r="F257" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
     </row>
     <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A258" s="53"/>
-      <c r="B258" s="53"/>
-      <c r="C258" s="53"/>
-      <c r="D258" s="53"/>
+      <c r="A258" s="52"/>
+      <c r="B258" s="52"/>
+      <c r="C258" s="52"/>
+      <c r="D258" s="52"/>
       <c r="E258" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F258" s="38" t="s">
+      <c r="F258" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
     </row>
     <row r="259" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A259" s="53"/>
-      <c r="B259" s="53"/>
-      <c r="C259" s="53"/>
-      <c r="D259" s="53"/>
+      <c r="A259" s="52"/>
+      <c r="B259" s="52"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
       <c r="E259" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F259" s="38" t="s">
+      <c r="F259" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
     </row>
     <row r="260" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A260" s="53"/>
-      <c r="B260" s="53"/>
-      <c r="C260" s="53"/>
-      <c r="D260" s="53"/>
+      <c r="A260" s="52"/>
+      <c r="B260" s="52"/>
+      <c r="C260" s="52"/>
+      <c r="D260" s="52"/>
       <c r="E260" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="F260" s="38" t="s">
+      <c r="F260" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
     </row>
     <row r="261" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A261" s="53"/>
-      <c r="B261" s="53"/>
-      <c r="C261" s="53"/>
-      <c r="D261" s="53"/>
+      <c r="A261" s="52"/>
+      <c r="B261" s="52"/>
+      <c r="C261" s="52"/>
+      <c r="D261" s="52"/>
       <c r="E261" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F261" s="38" t="s">
+      <c r="F261" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
     </row>
     <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A262" s="54"/>
-      <c r="B262" s="54"/>
-      <c r="C262" s="54"/>
-      <c r="D262" s="54"/>
+      <c r="A262" s="53"/>
+      <c r="B262" s="53"/>
+      <c r="C262" s="53"/>
+      <c r="D262" s="53"/>
       <c r="E262" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F262" s="38" t="s">
+      <c r="F262" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="55">
+      <c r="A263" s="54">
         <v>2.6</v>
       </c>
-      <c r="B263" s="55" t="s">
+      <c r="B263" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="C263" s="55" t="s">
+      <c r="C263" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="D263" s="52" t="s">
+      <c r="D263" s="51" t="s">
         <v>337</v>
       </c>
       <c r="E263" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F263" s="38" t="s">
+      <c r="F263" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
     </row>
     <row r="264" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A264" s="53"/>
-      <c r="B264" s="53"/>
-      <c r="C264" s="53"/>
-      <c r="D264" s="53"/>
+      <c r="A264" s="52"/>
+      <c r="B264" s="52"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="52"/>
       <c r="E264" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F264" s="38" t="s">
+      <c r="F264" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
     </row>
     <row r="265" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="54"/>
-      <c r="B265" s="54"/>
-      <c r="C265" s="54"/>
-      <c r="D265" s="54"/>
+      <c r="A265" s="53"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="53"/>
+      <c r="D265" s="53"/>
       <c r="E265" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F265" s="38" t="s">
+      <c r="F265" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="5"/>
@@ -5631,46 +5625,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D185:D194"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="B185:B194"/>
-    <mergeCell ref="A185:A194"/>
-    <mergeCell ref="C195:C214"/>
-    <mergeCell ref="B195:B214"/>
-    <mergeCell ref="A195:A214"/>
-    <mergeCell ref="D195:D214"/>
-    <mergeCell ref="A250:A262"/>
-    <mergeCell ref="D250:D262"/>
-    <mergeCell ref="D215:D223"/>
-    <mergeCell ref="C215:C223"/>
-    <mergeCell ref="B215:B223"/>
-    <mergeCell ref="A215:A223"/>
-    <mergeCell ref="D224:D236"/>
-    <mergeCell ref="C224:C236"/>
-    <mergeCell ref="D10:D33"/>
-    <mergeCell ref="C10:C33"/>
-    <mergeCell ref="B10:B33"/>
-    <mergeCell ref="A10:A33"/>
-    <mergeCell ref="C34:C56"/>
-    <mergeCell ref="B34:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B68:B92"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="D34:D56"/>
-    <mergeCell ref="D57:D67"/>
-    <mergeCell ref="C57:C67"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="D68:D92"/>
-    <mergeCell ref="C68:C92"/>
-    <mergeCell ref="D93:D114"/>
-    <mergeCell ref="C93:C114"/>
-    <mergeCell ref="B93:B114"/>
-    <mergeCell ref="A93:A114"/>
-    <mergeCell ref="C115:C138"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="A115:A138"/>
-    <mergeCell ref="D115:D138"/>
     <mergeCell ref="D139:D175"/>
     <mergeCell ref="C139:C175"/>
     <mergeCell ref="B139:B175"/>
@@ -5687,10 +5641,50 @@
     <mergeCell ref="B250:B262"/>
     <mergeCell ref="B224:B236"/>
     <mergeCell ref="A224:A236"/>
+    <mergeCell ref="D93:D114"/>
+    <mergeCell ref="C93:C114"/>
+    <mergeCell ref="B93:B114"/>
+    <mergeCell ref="A93:A114"/>
+    <mergeCell ref="C115:C138"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="A115:A138"/>
+    <mergeCell ref="D115:D138"/>
+    <mergeCell ref="B68:B92"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="D34:D56"/>
+    <mergeCell ref="D57:D67"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="D68:D92"/>
+    <mergeCell ref="C68:C92"/>
+    <mergeCell ref="D10:D33"/>
+    <mergeCell ref="C10:C33"/>
+    <mergeCell ref="B10:B33"/>
+    <mergeCell ref="A10:A33"/>
+    <mergeCell ref="C34:C56"/>
+    <mergeCell ref="B34:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="A250:A262"/>
+    <mergeCell ref="D250:D262"/>
+    <mergeCell ref="D215:D223"/>
+    <mergeCell ref="C215:C223"/>
+    <mergeCell ref="B215:B223"/>
+    <mergeCell ref="A215:A223"/>
+    <mergeCell ref="D224:D236"/>
+    <mergeCell ref="C224:C236"/>
     <mergeCell ref="D237:D249"/>
     <mergeCell ref="C237:C249"/>
     <mergeCell ref="A237:A249"/>
     <mergeCell ref="B237:B249"/>
+    <mergeCell ref="D185:D194"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="B185:B194"/>
+    <mergeCell ref="A185:A194"/>
+    <mergeCell ref="C195:C214"/>
+    <mergeCell ref="B195:B214"/>
+    <mergeCell ref="A195:A214"/>
+    <mergeCell ref="D195:D214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5704,7 +5698,7 @@
   </sheetPr>
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5730,10 +5724,10 @@
         <v>342</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -5744,10 +5738,10 @@
         <v>345</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <v>324</v>
       </c>
     </row>
@@ -5760,10 +5754,10 @@
         <v>342</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>324</v>
       </c>
     </row>
@@ -5776,10 +5770,10 @@
         <v>345</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="47">
+      <c r="E6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="46">
         <v>304</v>
       </c>
     </row>
@@ -5792,7 +5786,7 @@
         <v>345</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="25">
@@ -5804,14 +5798,14 @@
       <c r="B8" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>355</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>0</v>
       </c>
     </row>
